--- a/public/sample_passenger_data1.xlsx
+++ b/public/sample_passenger_data1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sungminchoi/come-on-time/public/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02697D2A-C572-0341-8F80-D0A14034DA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,9 +41,6 @@
   </si>
   <si>
     <t>Boarding Status</t>
-  </si>
-  <si>
-    <t>DL300</t>
   </si>
   <si>
     <t>New York</t>
@@ -102,16 +105,20 @@
   <si>
     <t>On</t>
   </si>
+  <si>
+    <t>DL 300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,8 +126,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -166,17 +180,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +236,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +270,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +305,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,12 +481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -489,10 +515,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>810</v>
@@ -501,21 +527,21 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>810</v>
@@ -524,21 +550,21 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>810</v>
@@ -547,21 +573,21 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>810</v>
@@ -570,21 +596,21 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>810</v>
@@ -593,21 +619,21 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>810</v>
@@ -616,21 +642,21 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>810</v>
@@ -639,21 +665,21 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>810</v>
@@ -662,21 +688,21 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>810</v>
@@ -685,21 +711,21 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>810</v>
@@ -708,21 +734,21 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>810</v>
@@ -731,21 +757,21 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>810</v>
@@ -754,21 +780,21 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>810</v>
@@ -777,21 +803,21 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>810</v>
@@ -800,21 +826,21 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>810</v>
@@ -823,21 +849,21 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>810</v>
@@ -846,21 +872,21 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>810</v>
@@ -869,21 +895,21 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>810</v>
@@ -892,21 +918,21 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>810</v>
@@ -915,21 +941,21 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>810</v>
@@ -938,21 +964,21 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>810</v>
@@ -961,21 +987,21 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>810</v>
@@ -984,21 +1010,21 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>810</v>
@@ -1007,21 +1033,21 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>810</v>
@@ -1030,21 +1056,21 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>810</v>
@@ -1053,21 +1079,21 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>810</v>
@@ -1076,21 +1102,21 @@
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>810</v>
@@ -1099,21 +1125,21 @@
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>810</v>
@@ -1122,21 +1148,21 @@
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>810</v>
@@ -1145,21 +1171,21 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>810</v>
@@ -1168,21 +1194,21 @@
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>810</v>
@@ -1191,21 +1217,21 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>810</v>
@@ -1214,21 +1240,21 @@
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>810</v>
@@ -1237,21 +1263,21 @@
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>810</v>
@@ -1260,21 +1286,21 @@
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>810</v>
@@ -1283,21 +1309,21 @@
         <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>810</v>
@@ -1306,21 +1332,21 @@
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>810</v>
@@ -1329,21 +1355,21 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>810</v>
@@ -1352,21 +1378,21 @@
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>810</v>
@@ -1375,21 +1401,21 @@
         <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>810</v>
@@ -1398,21 +1424,21 @@
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>810</v>
@@ -1421,21 +1447,21 @@
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>810</v>
@@ -1444,21 +1470,21 @@
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>810</v>
@@ -1467,21 +1493,21 @@
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>810</v>
@@ -1490,21 +1516,21 @@
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>810</v>
@@ -1513,21 +1539,21 @@
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>810</v>
@@ -1536,21 +1562,21 @@
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <v>810</v>
@@ -1559,21 +1585,21 @@
         <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <v>810</v>
@@ -1582,21 +1608,21 @@
         <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50">
         <v>810</v>
@@ -1605,21 +1631,21 @@
         <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <v>810</v>
@@ -1628,21 +1654,21 @@
         <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>810</v>
@@ -1651,21 +1677,21 @@
         <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>810</v>
@@ -1674,21 +1700,21 @@
         <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54">
         <v>810</v>
@@ -1697,21 +1723,21 @@
         <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>810</v>
@@ -1720,21 +1746,21 @@
         <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>810</v>
@@ -1743,21 +1769,21 @@
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <v>810</v>
@@ -1766,21 +1792,21 @@
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>810</v>
@@ -1789,21 +1815,21 @@
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <v>810</v>
@@ -1812,21 +1838,21 @@
         <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60">
         <v>810</v>
@@ -1835,21 +1861,21 @@
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <v>810</v>
@@ -1858,21 +1884,21 @@
         <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62">
         <v>810</v>
@@ -1881,21 +1907,21 @@
         <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63">
         <v>810</v>
@@ -1904,21 +1930,21 @@
         <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>810</v>
@@ -1927,21 +1953,21 @@
         <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65">
         <v>810</v>
@@ -1950,21 +1976,21 @@
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66">
         <v>810</v>
@@ -1973,21 +1999,21 @@
         <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <v>810</v>
@@ -1996,21 +2022,21 @@
         <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>810</v>
@@ -2019,21 +2045,21 @@
         <v>25</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69">
         <v>810</v>
@@ -2042,21 +2068,21 @@
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70">
         <v>810</v>
@@ -2065,21 +2091,21 @@
         <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71">
         <v>810</v>
@@ -2088,21 +2114,21 @@
         <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72">
         <v>810</v>
@@ -2111,21 +2137,21 @@
         <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>810</v>
@@ -2134,21 +2160,21 @@
         <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74">
         <v>810</v>
@@ -2157,21 +2183,21 @@
         <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>810</v>
@@ -2180,21 +2206,21 @@
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76">
         <v>810</v>
@@ -2203,21 +2229,21 @@
         <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77">
         <v>810</v>
@@ -2226,21 +2252,21 @@
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78">
         <v>810</v>
@@ -2249,21 +2275,21 @@
         <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79">
         <v>810</v>
@@ -2272,21 +2298,21 @@
         <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>810</v>
@@ -2295,21 +2321,21 @@
         <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>810</v>
@@ -2318,21 +2344,21 @@
         <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82">
         <v>810</v>
@@ -2341,21 +2367,21 @@
         <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <v>810</v>
@@ -2364,21 +2390,21 @@
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84">
         <v>810</v>
@@ -2387,21 +2413,21 @@
         <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>810</v>
@@ -2410,21 +2436,21 @@
         <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <v>810</v>
@@ -2433,21 +2459,21 @@
         <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>810</v>
@@ -2456,21 +2482,21 @@
         <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88">
         <v>810</v>
@@ -2479,21 +2505,21 @@
         <v>25</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89">
         <v>810</v>
@@ -2502,21 +2528,21 @@
         <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90">
         <v>810</v>
@@ -2525,21 +2551,21 @@
         <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91">
         <v>810</v>
@@ -2548,21 +2574,21 @@
         <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92">
         <v>810</v>
@@ -2571,21 +2597,21 @@
         <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93">
         <v>810</v>
@@ -2594,21 +2620,21 @@
         <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94">
         <v>810</v>
@@ -2617,21 +2643,21 @@
         <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95">
         <v>810</v>
@@ -2640,21 +2666,21 @@
         <v>25</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96">
         <v>810</v>
@@ -2663,21 +2689,21 @@
         <v>25</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97">
         <v>810</v>
@@ -2686,21 +2712,21 @@
         <v>25</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98">
         <v>810</v>
@@ -2709,21 +2735,21 @@
         <v>25</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99">
         <v>810</v>
@@ -2732,21 +2758,21 @@
         <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>810</v>
@@ -2755,21 +2781,21 @@
         <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101">
         <v>810</v>
@@ -2778,16 +2804,17 @@
         <v>25</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>